--- a/data/filenames-indexes.xlsx
+++ b/data/filenames-indexes.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikol/Desktop/e450-capstone/ExoArm/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikol/Desktop/engrCapst/ExoArm/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7555FFB-FB8D-7F4D-91D6-AF5947B8D4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39E932E-FDFC-D34E-86CA-2C1D6EF2B314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="1" xr2:uid="{55F049C0-496D-4D49-AA67-824C2081B718}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>FILENAMES</t>
   </si>
@@ -46,9 +44,6 @@
   </si>
   <si>
     <t>EXTENSION</t>
-  </si>
-  <si>
-    <t>../data/CoolTerm Capture 2022-12-06 20-02-36.txt</t>
   </si>
   <si>
     <t>SUSTAIN</t>
@@ -62,18 +57,30 @@
   <si>
     <t>../data/12-1-data.txt</t>
   </si>
+  <si>
+    <t>../data/CoolTerm Capture 2022-12-06 20-02-36.txt</t>
+  </si>
+  <si>
+    <t>../data/TEST.txt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,12 +99,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,11 +436,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F457DC8E-8911-D14A-8BC5-3B0862454636}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,18 +459,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>391</v>
@@ -457,7 +482,7 @@
         <v>470</v>
       </c>
       <c r="E2">
-        <f>C2+F2</f>
+        <f t="shared" ref="E2:E12" si="0">C2+F2</f>
         <v>651</v>
       </c>
       <c r="F2">
@@ -475,7 +500,7 @@
         <v>860</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E12" si="0">C3+F3</f>
+        <f t="shared" si="0"/>
         <v>917</v>
       </c>
     </row>
@@ -620,11 +645,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12ABCF0-AD08-7245-A947-B3778545A52C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,18 +665,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>430</v>
@@ -714,4 +739,101 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1530</v>
+      </c>
+      <c r="C2">
+        <v>872</v>
+      </c>
+      <c r="D2">
+        <v>629</v>
+      </c>
+      <c r="E2">
+        <v>975</v>
+      </c>
+      <c r="F2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1460</v>
+      </c>
+      <c r="C3">
+        <v>1645</v>
+      </c>
+      <c r="D3">
+        <v>1325</v>
+      </c>
+      <c r="E3">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2084</v>
+      </c>
+      <c r="C4">
+        <v>2452</v>
+      </c>
+      <c r="D4">
+        <v>2166</v>
+      </c>
+      <c r="E4">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>3098</v>
+      </c>
+      <c r="D5">
+        <v>2860</v>
+      </c>
+      <c r="E5">
+        <v>3210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/filenames-indexes.xlsx
+++ b/data/filenames-indexes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikol/Desktop/engrCapst/ExoArm/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39E932E-FDFC-D34E-86CA-2C1D6EF2B314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48985FC6-043D-1B4A-AB66-D6E25BC8C4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
     <t>../data/CoolTerm Capture 2022-12-06 20-02-36.txt</t>
   </si>
   <si>
-    <t>../data/TEST.txt</t>
+    <t>../data/CoolTerm Capture 2023-02-02 10-56-19.txt</t>
   </si>
 </sst>
 </file>
@@ -77,7 +77,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -653,6 +652,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -746,10 +748,13 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:E14"/>
+      <selection activeCell="E7" sqref="D6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -776,16 +781,16 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1530</v>
+        <v>356</v>
       </c>
       <c r="C2">
-        <v>872</v>
+        <v>1314</v>
       </c>
       <c r="D2">
-        <v>629</v>
+        <v>2669</v>
       </c>
       <c r="E2">
-        <v>975</v>
+        <v>2008</v>
       </c>
       <c r="F2">
         <v>90</v>
@@ -793,44 +798,44 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>1460</v>
+        <v>620</v>
       </c>
       <c r="C3">
-        <v>1645</v>
+        <v>1512</v>
       </c>
       <c r="D3">
-        <v>1325</v>
+        <v>2769</v>
       </c>
       <c r="E3">
-        <v>1765</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>2084</v>
+        <v>818</v>
       </c>
       <c r="C4">
-        <v>2452</v>
+        <v>1678</v>
       </c>
       <c r="D4">
-        <v>2166</v>
+        <v>2967</v>
       </c>
       <c r="E4">
-        <v>2568</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>100</v>
+        <v>1182</v>
       </c>
       <c r="C5">
-        <v>3098</v>
+        <v>1843</v>
       </c>
       <c r="D5">
-        <v>2860</v>
+        <v>3033</v>
       </c>
       <c r="E5">
-        <v>3210</v>
+        <v>2471</v>
       </c>
     </row>
   </sheetData>

--- a/data/filenames-indexes.xlsx
+++ b/data/filenames-indexes.xlsx
@@ -8,34 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikol/Desktop/engrCapst/ExoArm/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48985FC6-043D-1B4A-AB66-D6E25BC8C4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD404E3-EB3E-DC4A-9B53-00634668AB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
   <si>
     <t>FILENAMES</t>
   </si>
@@ -55,20 +45,29 @@
     <t>WINDOW</t>
   </si>
   <si>
-    <t>../data/12-1-data.txt</t>
+    <t>../data/CoolTerm Capture 2023-02-02 10-56-19.txt</t>
   </si>
   <si>
-    <t>../data/CoolTerm Capture 2022-12-06 20-02-36.txt</t>
+    <t>../data/CoolTerm Capture 2023-02-07 10-16-08.txt</t>
   </si>
   <si>
-    <t>../data/CoolTerm Capture 2023-02-02 10-56-19.txt</t>
+    <t>../data/CoolTerm Capture 2023-02-07 10-29-08.txt</t>
+  </si>
+  <si>
+    <t>../data/CoolTerm Capture 2023-02-07 10-45-26.txt</t>
+  </si>
+  <si>
+    <t>../data/CoolTerm Capture 2023-02-13 18-31-26.txt</t>
+  </si>
+  <si>
+    <t>../data/CoolTerm Capture 2023-02-13 19-07-42.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,6 +80,34 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -90,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -113,13 +140,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -436,406 +553,1079 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="C2">
-        <v>551</v>
+        <v>1314</v>
       </c>
       <c r="D2">
-        <v>470</v>
+        <v>2669</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E12" si="0">C2+F2</f>
-        <v>651</v>
+        <v>2008</v>
       </c>
       <c r="F2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="B3">
-        <v>773</v>
+        <v>620</v>
       </c>
       <c r="C3">
-        <v>917</v>
+        <v>1512</v>
       </c>
       <c r="D3">
-        <v>860</v>
+        <v>2769</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
-        <v>917</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="B4">
-        <v>1140</v>
+        <v>818</v>
       </c>
       <c r="C4">
-        <v>1293</v>
+        <v>1678</v>
       </c>
       <c r="D4">
-        <v>1220</v>
+        <v>2967</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="B5">
-        <v>1515</v>
+        <v>1182</v>
       </c>
       <c r="C5">
-        <v>1675</v>
+        <v>1843</v>
       </c>
       <c r="D5">
-        <v>1575</v>
+        <v>3033</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>1881</v>
-      </c>
-      <c r="C6">
-        <v>2051</v>
-      </c>
-      <c r="D6">
-        <v>1975</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>2252</v>
-      </c>
-      <c r="C7">
-        <v>2437</v>
-      </c>
-      <c r="D7">
-        <v>2375</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>2437</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>2638</v>
-      </c>
-      <c r="C8">
-        <v>2824</v>
-      </c>
-      <c r="D8">
-        <v>2730</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>2824</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>3000</v>
-      </c>
-      <c r="C9">
-        <v>3200</v>
-      </c>
-      <c r="D9">
-        <v>3103</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>3412</v>
-      </c>
-      <c r="C10">
-        <v>3582</v>
-      </c>
-      <c r="D10">
-        <v>3490</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>3582</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>3757</v>
-      </c>
-      <c r="C11">
-        <v>3937</v>
-      </c>
-      <c r="D11">
-        <v>3839</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>3937</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>4133</v>
-      </c>
-      <c r="C12">
-        <v>4319</v>
-      </c>
-      <c r="D12">
-        <v>4210</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>4319</v>
+        <v>2471</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="40.1640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>430</v>
+        <v>192</v>
       </c>
       <c r="C2">
-        <v>772</v>
+        <v>4092</v>
       </c>
       <c r="D2">
-        <v>529</v>
+        <v>3332</v>
       </c>
       <c r="E2">
-        <v>875</v>
+        <v>1845</v>
       </c>
       <c r="F2">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3">
-        <v>1160</v>
+        <v>357</v>
       </c>
       <c r="C3">
-        <v>1545</v>
+        <v>4191</v>
       </c>
       <c r="D3">
-        <v>1225</v>
+        <v>3464</v>
       </c>
       <c r="E3">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="B4">
-        <v>1987</v>
+        <v>721</v>
       </c>
       <c r="C4">
-        <v>2352</v>
+        <v>4290</v>
       </c>
       <c r="D4">
-        <v>2066</v>
+        <v>3530</v>
       </c>
       <c r="E4">
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="B5">
-        <v>2675</v>
+        <v>886</v>
       </c>
       <c r="C5">
-        <v>2998</v>
+        <v>4455</v>
       </c>
       <c r="D5">
-        <v>2760</v>
+        <v>3629</v>
       </c>
       <c r="E5">
-        <v>3110</v>
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>985</v>
+      </c>
+      <c r="C6">
+        <v>4555</v>
+      </c>
+      <c r="D6">
+        <v>3728</v>
+      </c>
+      <c r="E6">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7">
+        <v>1150</v>
+      </c>
+      <c r="C7">
+        <v>4687</v>
+      </c>
+      <c r="D7">
+        <v>3827</v>
+      </c>
+      <c r="E7">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8">
+        <v>1382</v>
+      </c>
+      <c r="C8">
+        <v>4819</v>
+      </c>
+      <c r="D8">
+        <v>3860</v>
+      </c>
+      <c r="E8">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9">
+        <v>1514</v>
+      </c>
+      <c r="C9">
+        <v>4918</v>
+      </c>
+      <c r="D9">
+        <v>3927</v>
+      </c>
+      <c r="E9">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10">
+        <v>5050</v>
+      </c>
+      <c r="D10">
+        <v>4026</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="D6:E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="1" max="1" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
-        <v>356</v>
+        <v>294</v>
       </c>
       <c r="C2">
-        <v>1314</v>
+        <v>3632</v>
       </c>
       <c r="D2">
-        <v>2669</v>
+        <v>3202</v>
       </c>
       <c r="E2">
-        <v>2008</v>
+        <v>2376</v>
       </c>
       <c r="F2">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3">
-        <v>620</v>
+        <v>889</v>
       </c>
       <c r="C3">
-        <v>1512</v>
+        <v>3863</v>
       </c>
       <c r="D3">
-        <v>2769</v>
+        <v>3301</v>
       </c>
       <c r="E3">
-        <v>2273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="B4">
-        <v>818</v>
+        <v>1153</v>
       </c>
       <c r="C4">
-        <v>1678</v>
+        <v>4028</v>
       </c>
       <c r="D4">
-        <v>2967</v>
+        <v>3400</v>
       </c>
       <c r="E4">
-        <v>2372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="B5">
-        <v>1182</v>
+        <v>1318</v>
       </c>
       <c r="C5">
-        <v>1843</v>
+        <v>4161</v>
       </c>
       <c r="D5">
-        <v>3033</v>
+        <v>3500</v>
       </c>
       <c r="E5">
-        <v>2471</v>
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>1484</v>
+      </c>
+      <c r="C6">
+        <v>4425</v>
+      </c>
+      <c r="D6">
+        <v>3566</v>
+      </c>
+      <c r="E6">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7">
+        <v>1583</v>
+      </c>
+      <c r="C7">
+        <v>4557</v>
+      </c>
+      <c r="E7">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8">
+        <v>1715</v>
+      </c>
+      <c r="C8">
+        <v>4722</v>
+      </c>
+      <c r="E8">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9">
+        <v>1847</v>
+      </c>
+      <c r="C9">
+        <v>4921</v>
+      </c>
+      <c r="E9">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10">
+        <v>3764</v>
+      </c>
+      <c r="E10">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11">
+        <v>3929</v>
+      </c>
+      <c r="E11">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12">
+        <v>4094</v>
+      </c>
+      <c r="E12">
+        <v>3103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>766</v>
+      </c>
+      <c r="C2">
+        <v>1295</v>
+      </c>
+      <c r="D2">
+        <v>1857</v>
+      </c>
+      <c r="E2">
+        <v>2022</v>
+      </c>
+      <c r="F2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3">
+        <v>1064</v>
+      </c>
+      <c r="C3">
+        <v>1461</v>
+      </c>
+      <c r="D3">
+        <v>2186</v>
+      </c>
+      <c r="E3">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4">
+        <v>1229</v>
+      </c>
+      <c r="C4">
+        <v>1659</v>
+      </c>
+      <c r="D4">
+        <v>2485</v>
+      </c>
+      <c r="E4">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5">
+        <v>1394</v>
+      </c>
+      <c r="C5">
+        <v>2287</v>
+      </c>
+      <c r="D5">
+        <v>2948</v>
+      </c>
+      <c r="E5">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>1527</v>
+      </c>
+      <c r="C6">
+        <v>2551</v>
+      </c>
+      <c r="D6">
+        <v>3377</v>
+      </c>
+      <c r="E6">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7">
+        <v>1758</v>
+      </c>
+      <c r="C7">
+        <v>3014</v>
+      </c>
+      <c r="D7">
+        <v>3476</v>
+      </c>
+      <c r="E7">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8">
+        <v>2121</v>
+      </c>
+      <c r="C8">
+        <v>3212</v>
+      </c>
+      <c r="E8">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9">
+        <v>2452</v>
+      </c>
+      <c r="C9">
+        <v>3543</v>
+      </c>
+      <c r="E9">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10">
+        <v>2849</v>
+      </c>
+      <c r="C10">
+        <v>4104</v>
+      </c>
+      <c r="E10">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11">
+        <v>3113</v>
+      </c>
+      <c r="C11">
+        <v>4402</v>
+      </c>
+      <c r="E11">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12">
+        <v>3278</v>
+      </c>
+      <c r="E12">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14">
+        <v>4237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>439</v>
+      </c>
+      <c r="C2">
+        <v>2620</v>
+      </c>
+      <c r="D2">
+        <v>5033</v>
+      </c>
+      <c r="E2">
+        <v>5793</v>
+      </c>
+      <c r="F2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3">
+        <v>604</v>
+      </c>
+      <c r="C3">
+        <v>2786</v>
+      </c>
+      <c r="D3">
+        <v>5132</v>
+      </c>
+      <c r="E3">
+        <v>5925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4">
+        <v>803</v>
+      </c>
+      <c r="C4">
+        <v>3017</v>
+      </c>
+      <c r="D4">
+        <v>5198</v>
+      </c>
+      <c r="E4">
+        <v>6057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5">
+        <v>935</v>
+      </c>
+      <c r="C5">
+        <v>3380</v>
+      </c>
+      <c r="D5">
+        <v>5297</v>
+      </c>
+      <c r="E5">
+        <v>6123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>1166</v>
+      </c>
+      <c r="C6">
+        <v>3612</v>
+      </c>
+      <c r="D6">
+        <v>5429</v>
+      </c>
+      <c r="E6">
+        <v>6917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7">
+        <v>1298</v>
+      </c>
+      <c r="C7">
+        <v>3777</v>
+      </c>
+      <c r="D7">
+        <v>5496</v>
+      </c>
+      <c r="E7">
+        <v>7016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8">
+        <v>1497</v>
+      </c>
+      <c r="C8">
+        <v>3975</v>
+      </c>
+      <c r="D8">
+        <v>5529</v>
+      </c>
+      <c r="E8">
+        <v>7115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9">
+        <v>1695</v>
+      </c>
+      <c r="C9">
+        <v>4108</v>
+      </c>
+      <c r="D9">
+        <v>5595</v>
+      </c>
+      <c r="E9">
+        <v>7181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10">
+        <v>1860</v>
+      </c>
+      <c r="C10">
+        <v>4339</v>
+      </c>
+      <c r="D10">
+        <v>6289</v>
+      </c>
+      <c r="E10">
+        <v>7247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11">
+        <v>2059</v>
+      </c>
+      <c r="C11">
+        <v>4570</v>
+      </c>
+      <c r="D11">
+        <v>6355</v>
+      </c>
+      <c r="E11">
+        <v>7313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12">
+        <v>2224</v>
+      </c>
+      <c r="C12">
+        <v>4802</v>
+      </c>
+      <c r="D12">
+        <v>6421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13">
+        <v>2389</v>
+      </c>
+      <c r="C13">
+        <v>7445</v>
+      </c>
+      <c r="D13">
+        <v>6520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14">
+        <v>7578</v>
+      </c>
+      <c r="C14">
+        <v>7677</v>
+      </c>
+      <c r="D14">
+        <v>6685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15">
+        <v>7776</v>
+      </c>
+      <c r="C15">
+        <v>7875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>265</v>
+      </c>
+      <c r="C2">
+        <v>397</v>
+      </c>
+      <c r="D2">
+        <v>1389</v>
+      </c>
+      <c r="E2">
+        <v>1719</v>
+      </c>
+      <c r="F2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3">
+        <v>562</v>
+      </c>
+      <c r="C3">
+        <v>728</v>
+      </c>
+      <c r="D3">
+        <v>1488</v>
+      </c>
+      <c r="E3">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4">
+        <v>860</v>
+      </c>
+      <c r="C4">
+        <v>992</v>
+      </c>
+      <c r="D4">
+        <v>2182</v>
+      </c>
+      <c r="E4">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5">
+        <v>4066</v>
+      </c>
+      <c r="C5">
+        <v>4198</v>
+      </c>
+      <c r="D5">
+        <v>2314</v>
+      </c>
+      <c r="E5">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>4363</v>
+      </c>
+      <c r="C6">
+        <v>4462</v>
+      </c>
+      <c r="D6">
+        <v>2380</v>
+      </c>
+      <c r="E6">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7">
+        <v>4594</v>
+      </c>
+      <c r="C7">
+        <v>4727</v>
+      </c>
+      <c r="D7">
+        <v>2446</v>
+      </c>
+      <c r="E7">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8">
+        <v>4859</v>
+      </c>
+      <c r="C8">
+        <v>5024</v>
+      </c>
+      <c r="D8">
+        <v>2545</v>
+      </c>
+      <c r="E8">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9">
+        <v>5123</v>
+      </c>
+      <c r="C9">
+        <v>5222</v>
+      </c>
+      <c r="D9">
+        <v>2611</v>
+      </c>
+      <c r="E9">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10">
+        <v>5355</v>
+      </c>
+      <c r="C10">
+        <v>5454</v>
+      </c>
+      <c r="D10">
+        <v>2711</v>
+      </c>
+      <c r="E10">
+        <v>3834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11">
+        <v>5586</v>
+      </c>
+      <c r="C11">
+        <v>5718</v>
+      </c>
+      <c r="D11">
+        <v>2909</v>
+      </c>
+      <c r="E11">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="D12">
+        <v>2975</v>
+      </c>
+      <c r="E12">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="D13">
+        <v>3074</v>
+      </c>
+      <c r="E13">
+        <v>5817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="D14">
+        <v>3140</v>
+      </c>
+      <c r="E14">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="D15">
+        <v>3239</v>
+      </c>
+      <c r="E15">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="D16">
+        <v>3338</v>
+      </c>
+      <c r="E16">
+        <v>5917</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17">
+        <v>6247</v>
+      </c>
+      <c r="E17">
+        <v>6842</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18">
+        <v>6346</v>
+      </c>
+      <c r="E18">
+        <v>6908</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19">
+        <v>6445</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20">
+        <v>6610</v>
       </c>
     </row>
   </sheetData>

--- a/data/filenames-indexes.xlsx
+++ b/data/filenames-indexes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikol/Desktop/engrCapst/ExoArm/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD404E3-EB3E-DC4A-9B53-00634668AB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD22406-F99A-6048-8DFF-B7978BC168BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="10000" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,20 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -814,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1392,7 +1405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>

--- a/data/filenames-indexes.xlsx
+++ b/data/filenames-indexes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikol/Desktop/engrCapst/ExoArm/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD22406-F99A-6048-8DFF-B7978BC168BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE960BB1-37B1-FC47-82CF-91747B7AC96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="10000" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,26 +19,14 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="13">
   <si>
     <t>FILENAMES</t>
   </si>
@@ -75,12 +63,15 @@
   <si>
     <t>../data/CoolTerm Capture 2023-02-13 19-07-42.txt</t>
   </si>
+  <si>
+    <t>../data/CoolTerm Capture 2023-03-22 19-36-43.txt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,6 +112,11 @@
       <sz val="12"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -130,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -228,11 +224,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -250,6 +261,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -828,7 +842,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1003,6 +1017,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="68.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
@@ -1188,6 +1205,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="69" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
@@ -1408,6 +1428,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="62.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
@@ -1644,4 +1667,303 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="59.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>970</v>
+      </c>
+      <c r="C2">
+        <v>1171</v>
+      </c>
+      <c r="D2">
+        <v>1600</v>
+      </c>
+      <c r="E2">
+        <v>177</v>
+      </c>
+      <c r="F2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3">
+        <v>1399</v>
+      </c>
+      <c r="C3">
+        <v>1797</v>
+      </c>
+      <c r="D3">
+        <v>1631</v>
+      </c>
+      <c r="E3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4">
+        <v>1928</v>
+      </c>
+      <c r="C4">
+        <v>2029</v>
+      </c>
+      <c r="D4">
+        <v>1666</v>
+      </c>
+      <c r="E4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5">
+        <v>2129</v>
+      </c>
+      <c r="C5">
+        <v>2294</v>
+      </c>
+      <c r="D5">
+        <v>3747</v>
+      </c>
+      <c r="E5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>2392</v>
+      </c>
+      <c r="C6">
+        <v>2525</v>
+      </c>
+      <c r="D6">
+        <v>3780</v>
+      </c>
+      <c r="E6">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7">
+        <v>2657</v>
+      </c>
+      <c r="C7">
+        <v>2755</v>
+      </c>
+      <c r="E7">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8">
+        <v>3516</v>
+      </c>
+      <c r="C8">
+        <v>3846</v>
+      </c>
+      <c r="E8">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9">
+        <v>3980</v>
+      </c>
+      <c r="C9">
+        <v>4078</v>
+      </c>
+      <c r="E9">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10">
+        <v>4805</v>
+      </c>
+      <c r="C10">
+        <v>4905</v>
+      </c>
+      <c r="E10">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11">
+        <v>5004</v>
+      </c>
+      <c r="C11">
+        <v>5103</v>
+      </c>
+      <c r="E11">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12">
+        <v>5301</v>
+      </c>
+      <c r="C12">
+        <v>5433</v>
+      </c>
+      <c r="E12">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13">
+        <v>5530</v>
+      </c>
+      <c r="C13">
+        <v>5633</v>
+      </c>
+      <c r="E13">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14">
+        <v>5764</v>
+      </c>
+      <c r="C14">
+        <v>5861</v>
+      </c>
+      <c r="E14">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15">
+        <v>5994</v>
+      </c>
+      <c r="C15">
+        <v>6096</v>
+      </c>
+      <c r="E15">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16">
+        <v>6194</v>
+      </c>
+      <c r="C16">
+        <v>6295</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17">
+        <v>6391</v>
+      </c>
+      <c r="C17">
+        <v>6492</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18">
+        <v>6590</v>
+      </c>
+      <c r="C18">
+        <v>6723</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19">
+        <v>6821</v>
+      </c>
+      <c r="C19">
+        <v>6919</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20">
+        <v>7285</v>
+      </c>
+      <c r="C20">
+        <v>7382</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21">
+        <v>7517</v>
+      </c>
+      <c r="C21">
+        <v>7580</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22">
+        <v>7681</v>
+      </c>
+      <c r="C22">
+        <v>7747</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23">
+        <v>7845</v>
+      </c>
+      <c r="C23">
+        <v>7945</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24">
+        <v>8076</v>
+      </c>
+      <c r="C24">
+        <v>8176</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25">
+        <v>8407</v>
+      </c>
+      <c r="C25">
+        <v>8508</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26">
+        <v>8606</v>
+      </c>
+      <c r="C26">
+        <v>8674</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/filenames-indexes.xlsx
+++ b/data/filenames-indexes.xlsx
@@ -1,126 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikol/Desktop/engrCapst/ExoArm/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE960BB1-37B1-FC47-82CF-91747B7AC96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="13">
-  <si>
-    <t>FILENAMES</t>
-  </si>
-  <si>
-    <t>FLEXION</t>
-  </si>
-  <si>
-    <t>EXTENSION</t>
-  </si>
-  <si>
-    <t>SUSTAIN</t>
-  </si>
-  <si>
-    <t>REST</t>
-  </si>
-  <si>
-    <t>WINDOW</t>
-  </si>
-  <si>
-    <t>../data/CoolTerm Capture 2023-02-02 10-56-19.txt</t>
-  </si>
-  <si>
-    <t>../data/CoolTerm Capture 2023-02-07 10-16-08.txt</t>
-  </si>
-  <si>
-    <t>../data/CoolTerm Capture 2023-02-07 10-29-08.txt</t>
-  </si>
-  <si>
-    <t>../data/CoolTerm Capture 2023-02-07 10-45-26.txt</t>
-  </si>
-  <si>
-    <t>../data/CoolTerm Capture 2023-02-13 18-31-26.txt</t>
-  </si>
-  <si>
-    <t>../data/CoolTerm Capture 2023-02-13 19-07-42.txt</t>
-  </si>
-  <si>
-    <t>../data/CoolTerm Capture 2023-03-22 19-36-43.txt</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="8">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="12"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="12"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="12"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="12"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -244,42 +195,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -579,7 +589,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -588,88 +602,102 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1"/>
+    <col width="41" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>FILENAMES</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FLEXION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>EXTENSION</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>SUSTAIN</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>REST</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>WINDOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>../data/CoolTerm Capture 2023-02-02 10-56-19.txt</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>356</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>1314</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>2669</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>2008</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="B3">
+    <row r="3">
+      <c r="B3" t="n">
         <v>620</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>1512</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>2769</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>2273</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="B4">
+    <row r="4">
+      <c r="B4" t="n">
         <v>818</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>1678</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>2967</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>2372</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="B5">
+    <row r="5">
+      <c r="B5" t="n">
         <v>1182</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>1843</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>3033</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>2471</v>
       </c>
     </row>
@@ -679,156 +707,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>FILENAMES</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>FLEXION</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>EXTENSION</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>SUSTAIN</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>REST</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>WINDOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>../data/CoolTerm Capture 2023-02-07 10-16-08.txt</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>192</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>4092</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>3332</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>1845</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="B3">
+    <row r="3">
+      <c r="B3" t="n">
         <v>357</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>4191</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>3464</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>2175</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="B4">
+    <row r="4">
+      <c r="B4" t="n">
         <v>721</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>4290</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>3530</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>2572</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="B5">
+    <row r="5">
+      <c r="B5" t="n">
         <v>886</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>4455</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>3629</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>2770</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="B6">
+    <row r="6">
+      <c r="B6" t="n">
         <v>985</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>4555</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>3728</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>2935</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="B7">
+    <row r="7">
+      <c r="B7" t="n">
         <v>1150</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>4687</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>3827</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>3034</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="B8">
+    <row r="8">
+      <c r="B8" t="n">
         <v>1382</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>4819</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>3860</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>3100</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="B9">
+    <row r="9">
+      <c r="B9" t="n">
         <v>1514</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>4918</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>3927</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>3166</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="C10">
+    <row r="10">
+      <c r="C10" t="n">
         <v>5050</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>4026</v>
       </c>
     </row>
@@ -838,7 +886,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -847,159 +899,173 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="54.5" customWidth="1"/>
+    <col width="54.5" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>FILENAMES</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>FLEXION</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>EXTENSION</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>SUSTAIN</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>REST</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>WINDOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>../data/CoolTerm Capture 2023-02-07 10-29-08.txt</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>294</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>3632</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>3202</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>2376</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="B3">
+    <row r="3">
+      <c r="B3" t="n">
         <v>889</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>3863</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>3301</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>2475</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="B4">
+    <row r="4">
+      <c r="B4" t="n">
         <v>1153</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>4028</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>3400</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>2541</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="B5">
+    <row r="5">
+      <c r="B5" t="n">
         <v>1318</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>4161</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>3500</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>2673</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="B6">
+    <row r="6">
+      <c r="B6" t="n">
         <v>1484</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>4425</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>3566</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>2773</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="B7">
+    <row r="7">
+      <c r="B7" t="n">
         <v>1583</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>4557</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>2806</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="B8">
+    <row r="8">
+      <c r="B8" t="n">
         <v>1715</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>4722</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>2839</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="B9">
+    <row r="9">
+      <c r="B9" t="n">
         <v>1847</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>4921</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>2872</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="B10">
+    <row r="10">
+      <c r="B10" t="n">
         <v>3764</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>2938</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11">
+    <row r="11">
+      <c r="B11" t="n">
         <v>3929</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>3037</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="B12">
+    <row r="12">
+      <c r="B12" t="n">
         <v>4094</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>3103</v>
       </c>
     </row>
@@ -1009,7 +1075,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1018,178 +1088,192 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="68.33203125" customWidth="1"/>
+    <col width="68.33203125" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>FILENAMES</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>FLEXION</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>EXTENSION</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>SUSTAIN</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>REST</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>WINDOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>../data/CoolTerm Capture 2023-02-07 10-45-26.txt</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>766</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>1295</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>1857</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>2022</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="B3">
+    <row r="3">
+      <c r="B3" t="n">
         <v>1064</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>1461</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>2186</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>2353</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="B4">
+    <row r="4">
+      <c r="B4" t="n">
         <v>1229</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>1659</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>2485</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>2617</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="B5">
+    <row r="5">
+      <c r="B5" t="n">
         <v>1394</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>2287</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>2948</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>2650</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="B6">
+    <row r="6">
+      <c r="B6" t="n">
         <v>1527</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>2551</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>3377</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>2749</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="B7">
+    <row r="7">
+      <c r="B7" t="n">
         <v>1758</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>3014</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>3476</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>2782</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="B8">
+    <row r="8">
+      <c r="B8" t="n">
         <v>2121</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>3212</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>3642</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="B9">
+    <row r="9">
+      <c r="B9" t="n">
         <v>2452</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>3543</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>3708</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="B10">
+    <row r="10">
+      <c r="B10" t="n">
         <v>2849</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>4104</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>3741</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11">
+    <row r="11">
+      <c r="B11" t="n">
         <v>3113</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>4402</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>3807</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="B12">
+    <row r="12">
+      <c r="B12" t="n">
         <v>3278</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>3873</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="B13">
+    <row r="13">
+      <c r="B13" t="n">
         <v>4005</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="B14">
+    <row r="14">
+      <c r="B14" t="n">
         <v>4237</v>
       </c>
     </row>
@@ -1199,220 +1283,240 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="69" customWidth="1"/>
+    <col width="69" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>FILENAMES</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>FLEXION</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>EXTENSION</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>SUSTAIN</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>REST</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>WINDOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>../data/CoolTerm Capture 2023-02-13 18-31-26.txt</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>439</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>2620</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>5033</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>5793</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="B3">
+    <row r="3">
+      <c r="B3" t="n">
         <v>604</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>2786</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>5132</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>5925</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="B4">
+    <row r="4">
+      <c r="B4" t="n">
         <v>803</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>3017</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>5198</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>6057</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="B5">
+    <row r="5">
+      <c r="B5" t="n">
         <v>935</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>3380</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>5297</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>6123</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="B6">
+    <row r="6">
+      <c r="B6" t="n">
         <v>1166</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>3612</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>5429</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>6917</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="B7">
+    <row r="7">
+      <c r="B7" t="n">
         <v>1298</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>3777</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>5496</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>7016</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="B8">
+    <row r="8">
+      <c r="B8" t="n">
         <v>1497</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>3975</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>5529</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>7115</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="B9">
+    <row r="9">
+      <c r="B9" t="n">
         <v>1695</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>4108</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>5595</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>7181</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="B10">
+    <row r="10">
+      <c r="B10" t="n">
         <v>1860</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>4339</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>6289</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>7247</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11">
+    <row r="11">
+      <c r="B11" t="n">
         <v>2059</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>4570</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>6355</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>7313</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="B12">
+    <row r="12">
+      <c r="B12" t="n">
         <v>2224</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>4802</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>6421</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="B13">
+    <row r="13">
+      <c r="B13" t="n">
         <v>2389</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>7445</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>6520</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="B14">
+    <row r="14">
+      <c r="B14" t="n">
         <v>7578</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>7677</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>6685</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="B15">
+    <row r="15">
+      <c r="B15" t="n">
         <v>7776</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>7875</v>
       </c>
     </row>
@@ -1422,245 +1526,265 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="62.1640625" customWidth="1"/>
+    <col width="62.1640625" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>FILENAMES</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>FLEXION</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>EXTENSION</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>SUSTAIN</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>REST</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>WINDOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>../data/CoolTerm Capture 2023-02-13 19-07-42.txt</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>265</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>397</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>1389</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>1719</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="B3">
+    <row r="3">
+      <c r="B3" t="n">
         <v>562</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>728</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>1488</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>1818</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="B4">
+    <row r="4">
+      <c r="B4" t="n">
         <v>860</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>992</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>2182</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>1917</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="B5">
+    <row r="5">
+      <c r="B5" t="n">
         <v>4066</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>4198</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>2314</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>3504</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="B6">
+    <row r="6">
+      <c r="B6" t="n">
         <v>4363</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>4462</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>2380</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>3603</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="B7">
+    <row r="7">
+      <c r="B7" t="n">
         <v>4594</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>4727</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>2446</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>3702</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="B8">
+    <row r="8">
+      <c r="B8" t="n">
         <v>4859</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>5024</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>2545</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>3735</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="B9">
+    <row r="9">
+      <c r="B9" t="n">
         <v>5123</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>5222</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>2611</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>3801</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="B10">
+    <row r="10">
+      <c r="B10" t="n">
         <v>5355</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>5454</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>2711</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>3834</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11">
+    <row r="11">
+      <c r="B11" t="n">
         <v>5586</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>5718</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>2909</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>3900</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="D12">
+    <row r="12">
+      <c r="D12" t="n">
         <v>2975</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>3933</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="D13">
+    <row r="13">
+      <c r="D13" t="n">
         <v>3074</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>5817</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="D14">
+    <row r="14">
+      <c r="D14" t="n">
         <v>3140</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>5850</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="D15">
+    <row r="15">
+      <c r="D15" t="n">
         <v>3239</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>5883</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="D16">
+    <row r="16">
+      <c r="D16" t="n">
         <v>3338</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>5917</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
-      <c r="D17">
+    <row r="17">
+      <c r="D17" t="n">
         <v>6247</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>6842</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
-      <c r="D18">
+    <row r="18">
+      <c r="D18" t="n">
         <v>6346</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>6908</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
-      <c r="D19">
+    <row r="19">
+      <c r="D19" t="n">
         <v>6445</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
-      <c r="D20">
+    <row r="20">
+      <c r="D20" t="n">
         <v>6610</v>
       </c>
     </row>
@@ -1670,296 +1794,316 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="59.6640625" customWidth="1"/>
+    <col width="59.6640625" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>FILENAMES</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>FLEXION</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>EXTENSION</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>SUSTAIN</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>REST</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>WINDOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>../data/CoolTerm Capture 2023-03-22 19-36-43.txt</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>970</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>1171</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>1600</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>177</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="B3">
+    <row r="3">
+      <c r="B3" t="n">
         <v>1399</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>1797</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>1631</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="B4">
+    <row r="4">
+      <c r="B4" t="n">
         <v>1928</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>2029</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>1666</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="B5">
+    <row r="5">
+      <c r="B5" t="n">
         <v>2129</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>2294</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>3747</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="B6">
+    <row r="6">
+      <c r="B6" t="n">
         <v>2392</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>2525</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>3780</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="B7">
+    <row r="7">
+      <c r="B7" t="n">
         <v>2657</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>2755</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>542</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="B8">
+    <row r="8">
+      <c r="B8" t="n">
         <v>3516</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>3846</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>575</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="B9">
+    <row r="9">
+      <c r="B9" t="n">
         <v>3980</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>4078</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>610</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="B10">
+    <row r="10">
+      <c r="B10" t="n">
         <v>4805</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>4905</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>643</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11">
+    <row r="11">
+      <c r="B11" t="n">
         <v>5004</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>5103</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>774</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="B12">
+    <row r="12">
+      <c r="B12" t="n">
         <v>5301</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>5433</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>806</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="B13">
+    <row r="13">
+      <c r="B13" t="n">
         <v>5530</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>5633</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>873</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="B14">
+    <row r="14">
+      <c r="B14" t="n">
         <v>5764</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>5861</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>1336</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="B15">
+    <row r="15">
+      <c r="B15" t="n">
         <v>5994</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>6096</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>3682</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="B16">
+    <row r="16">
+      <c r="B16" t="n">
         <v>6194</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>6295</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17">
+    <row r="17">
+      <c r="B17" t="n">
         <v>6391</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>6492</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="B18">
+    <row r="18">
+      <c r="B18" t="n">
         <v>6590</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>6723</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19">
+    <row r="19">
+      <c r="B19" t="n">
         <v>6821</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>6919</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20">
+    <row r="20">
+      <c r="B20" t="n">
         <v>7285</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>7382</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21">
+    <row r="21">
+      <c r="B21" t="n">
         <v>7517</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>7580</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22">
+    <row r="22">
+      <c r="B22" t="n">
         <v>7681</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>7747</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23">
+    <row r="23">
+      <c r="B23" t="n">
         <v>7845</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>7945</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24">
+    <row r="24">
+      <c r="B24" t="n">
         <v>8076</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>8176</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25">
+    <row r="25">
+      <c r="B25" t="n">
         <v>8407</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>8508</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26">
+    <row r="26">
+      <c r="B26" t="n">
         <v>8606</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>8674</v>
       </c>
     </row>

--- a/data/filenames-indexes.xlsx
+++ b/data/filenames-indexes.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikol/Desktop/engrCapst/ExoArm/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3F4E84-5512-8B4D-9A73-60DFB4EB41F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B356D810-3A77-9C4F-9536-CB99645803F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet7" sheetId="7" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
@@ -582,10 +582,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>356</v>
+      </c>
+      <c r="C2">
+        <v>1314</v>
+      </c>
+      <c r="D2">
+        <v>2729</v>
+      </c>
+      <c r="E2">
+        <v>2008</v>
+      </c>
+      <c r="F2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>620</v>
+      </c>
+      <c r="C3">
+        <v>1512</v>
+      </c>
+      <c r="D3">
+        <v>2769</v>
+      </c>
+      <c r="E3">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>818</v>
+      </c>
+      <c r="C4">
+        <v>1678</v>
+      </c>
+      <c r="D4">
+        <v>3027</v>
+      </c>
+      <c r="E4">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1182</v>
+      </c>
+      <c r="C5">
+        <v>1843</v>
+      </c>
+      <c r="D5">
+        <v>3033</v>
+      </c>
+      <c r="E5">
+        <v>2471</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -882,7 +982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -1094,106 +1194,6 @@
       </c>
       <c r="C15">
         <v>7875</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="41" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>356</v>
-      </c>
-      <c r="C2">
-        <v>1314</v>
-      </c>
-      <c r="D2">
-        <v>2669</v>
-      </c>
-      <c r="E2">
-        <v>2008</v>
-      </c>
-      <c r="F2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>620</v>
-      </c>
-      <c r="C3">
-        <v>1512</v>
-      </c>
-      <c r="D3">
-        <v>2769</v>
-      </c>
-      <c r="E3">
-        <v>2273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>818</v>
-      </c>
-      <c r="C4">
-        <v>1678</v>
-      </c>
-      <c r="D4">
-        <v>2967</v>
-      </c>
-      <c r="E4">
-        <v>2372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>1182</v>
-      </c>
-      <c r="C5">
-        <v>1843</v>
-      </c>
-      <c r="D5">
-        <v>3033</v>
-      </c>
-      <c r="E5">
-        <v>2471</v>
       </c>
     </row>
   </sheetData>
